--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-09T09:46:28+00:00</t>
+    <t>2025-08-01T06:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:40:58+00:00</t>
+    <t>2025-08-21T09:52:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T09:52:50+00:00</t>
+    <t>2025-11-14T15:31:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,7 +455,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -647,7 +647,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -726,7 +726,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -895,7 +895,7 @@
     <t>The domestic partnership status of a person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+    <t>http://hl7.org/fhir/ValueSet/marital-status|4.0.1</t>
   </si>
   <si>
     <t>Patient.multipleBirth[x]</t>
@@ -1000,7 +1000,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
@@ -1143,7 +1143,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1202,7 +1202,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T15:31:38+00:00</t>
+    <t>2025-12-03T08:52:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T08:52:56+00:00</t>
+    <t>2025-12-19T08:24:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -335,7 +335,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/EyeColorVS</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/EyeColorVS|0.1.0</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -363,7 +363,7 @@
     <t>Patient</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Patient|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">SubjectOfCare Client Resident
@@ -519,7 +519,7 @@
     <t>eyecolor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/EyeColor}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/EyeColor|0.1.0}
 </t>
   </si>
   <si>
@@ -820,7 +820,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/ModifiedAdministrativeGender</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/ModifiedAdministrativeGender|0.1.0</t>
   </si>
   <si>
     <t>Patient.birthDate</t>
@@ -1740,7 +1740,7 @@
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="66.78125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="71.30859375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:24:59+00:00</t>
+    <t>2025-12-23T15:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
